--- a/dell_matches.xlsx
+++ b/dell_matches.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +385,2352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell e5440  </t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>dell latitude e5440 - ordenador portátil empresarial de 14 pulgadas, intel core i5-4300u hasta 2,9 ghz, 8 gb ram, 256 gb ssd, hdmi, dvdrw, 802.11ac wifi más bt, windows 10 professional (renovado)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-E5440-Ordenador-Professional/dp/B07CZB8SG1/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+e5440&amp;qid=1631187079&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell e6540  </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ordenador portátil dell latitude e6540 i5 2,5 ghz 15,6 pulgadas 8 gb windows 7</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1tiles-Latitude-E6540-i5-15-6-Pulgadas-Windows/dp/B07DJB9RG4/ref=sr_1_21?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+e6540&amp;qid=1631187148&amp;s=electronics&amp;sr=1-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell e7240  </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dell latitude e7240 core i5-4300u, 8gb ram, 128gb ssd (renovado)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-E7240-i5-4300U-renovado/dp/B07PV3GDYB/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+e7240&amp;qid=1631187163&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell e7470  </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>dell laptop latitude e7470 de 14 pulgadas, color negro, intel core i5 2.4ghz, 16gb ram, 256gb ssd, intel hd graphics 520, windows 10 pro (renovado)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-E7470-Port%C3%A1til-pulgadas/dp/B07V9NB2ZS/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+e7470&amp;qid=1631187199&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell e7470  </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>dell - portátil latitude e7470 de 14 pulgadas, procesador core i5-6300u de 2,4 ghz, 8 gb de ram, 256 gb de ssd, windows 10 pro de 64 bits (renovado)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Pulgadas-i5-6300U-enchapado/dp/B07GCRHS5V/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+e7470&amp;qid=1631187199&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell e7470  </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>dell latitude e7470 14 pulgadas 1920 x 1080 full hd intel core i7 256 gb ssd disco duro 8 gb de memoria windows 10 pro webcam iluminación teclado portátil (certificado y reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Latitude-pulgadas-iluminaci%C3%B3n-certificado-reacondicionado/dp/B0913F7FP4/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+e7470&amp;qid=1631187199&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell e7470  </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dell latitude e7470 2.6ghz i7-6600u 14" 1920 x 1080pixeles negro - ordenador portátil (ultrabook, negro, concha, enterprise, i7-6600u, intel core i7-6xxx)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Latitude-E7470-2-6GHz-i7-6600U-1080Pixeles/dp/B01BIQTD4S/ref=sr_1_24?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+e7470&amp;qid=1631187199&amp;s=electronics&amp;sr=1-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell inspiron 15 - 3505  </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>dell inspiron 15 3505 ryz5-3450u/8gb/256ssd/fhd/matt/w10home</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Inspiron-RYZ5-3450U-256SSD-W10Home/dp/B08V4NMXCK/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+inspiron+15+-+3505&amp;qid=1631187254&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell inspiron 5520  </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>adaptador de corriente dell 5jdv6 inspiron aio 7459, precision 5510, 5520, 5530, precision m3800, xps 15 9530, 9550, 9560, 9570, optiplex 3050 aio m1myr 130w</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-5JDV6-Adaptador-Corriente-Precision/dp/B07HN8DJTX/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+inspiron+5520&amp;qid=1631187282&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell inspiron 5520  </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>dell inspiron 13 7347, 7348, inspiron aio 7459, precision 15 5510, precision 5520, xps 15 9530, xps 15 9550 130w ac adapter charger + power cables 6tty6</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Inspiron-Precision-Adapter-6TTY6/dp/B078S3M1HN/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+inspiron+5520&amp;qid=1631187282&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell inspiron 5547  </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>azerty francés teclado para dell inspiron 5548 5547 5551 5555 5748 5749 5758 5759</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/franc%C3%A9s-teclado-Dell-Inspiron-5548-5547-5551-5555-5748-5749-5758-5759/dp/B06WVG2GG7/ref=sr_1_25?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+inspiron+5547&amp;qid=1631187296&amp;s=electronics&amp;sr=1-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell inspiron n5110  </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>dell j1knd – batería original para ordenador portátil dell inspiron m5010 m5030 m5040 n3010 n4010 n5010 n5110 n7010 13r 14r 15r 17r</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/original-ordenador-port%C3%A1til-Dell-M5010-M5030-M5040-N3010-N4010-N5010-N5110-N7010-13R/dp/B007EBBYRQ/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+inspiron+n5110&amp;qid=1631187351&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell inspiron n5110  </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>nueva batería original original para ordenador dell inspiron 13r 14r 15r 17r n3010 n4010 n5010 n4110 n5110 n7010 n7110 m5010 m5030 m501 m501r n5030 dell vostro 3450 3550 3750j1knd 04yrjh fmhc10 tkv2 yxv2v j4xdh 9tcxn 9t48v 965y7 4t7jn 383cw w7h3n 07xfjj 4yrjy 8nh55 4yrjh j4xdh 7xfjj 9tcxn 9t48v 965y7 4t7jn 11.1v / 48wh 6 cell</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/BATER%C3%8DA-ORIGINAL-Ordenador-INSPIRON-3750J1KND/dp/B009U57TOG/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+inspiron+n5110&amp;qid=1631187351&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 3330  </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3330&amp;qid=1631187393&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 3330  </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>dell latitude 3330, 7275, e5250, e5440, e5450, e5540, e5550, e6440, e7240 240 w pa-9e adaptador de alimentación + cable de alimentación fwcrc 0mfk9 ga240pe1-00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Adaptador-alimentaci%C3%B3n-GA240PE1-00/dp/B077GW3W77/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3330&amp;qid=1631187393&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 3340  </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3340&amp;qid=1631187407&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 3380  </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3380&amp;qid=1631187436&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 3460  </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3460&amp;qid=1631187463&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 3470  </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3470&amp;qid=1631187477&amp;s=electronics&amp;sr=1-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 3480  </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3480&amp;qid=1631187490&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 3540  </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3540&amp;qid=1631187531&amp;s=electronics&amp;sr=1-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 3570  </t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3570&amp;qid=1631187562&amp;s=electronics&amp;sr=1-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 3580  </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_14?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+3580&amp;qid=1631187575&amp;s=electronics&amp;sr=1-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 5280  </t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5280&amp;qid=1631187603&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 5280  </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>nuevo adaptador de ca original dell la90pm170 usb-c tdk33 0tdk33 20v/12v/9v/5v-4.5a/3a/3a/3a, cargador original de 90 vatios tipo c, la90pm170, para latitude 5280 5480 5580 7280 7480 7380</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-LA90PM170-Adaptador-Cargador-Original/dp/B07789HG6D/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5280&amp;qid=1631187603&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 5290  </t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>vhbw batería recargable compatible con dell latitude 12 5285 2-in-1, 5290 2-in-1 notebook (5200 mah, 7,6 v, polímero de litio)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/vhbw-Recargable-Compatible-Latitude-Notebook/dp/B09BCW6HDQ/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5290&amp;qid=1631187617&amp;s=electronics&amp;sr=1-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 5300  </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ultrabook dell latitude e7250 intel core i5-5300 8 gb ssd128 gb 12,5 pulgadas – grado a (reacondicionado certificado)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-E6420-Ordenador-reacondicionado-Certificado/dp/B07YVJTHMM/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5300&amp;qid=1631187632&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 5300  </t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>dell latitude 5300 t9jdy, notebook schwarz, windows 10 pro 64-bit</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-generaci%C3%B3n-procesadores-DDR4-SDRAM/dp/B07SVS751P/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5300&amp;qid=1631187632&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 5410  </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>dell latitude 5410 i5 - ordenador portátil (ssd 256 gb + ram 8 gb, 14 pulgadas, s.o. windows 10 pro)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-5410-Ordenador-operativo/dp/B08D5ZRZCY/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5410&amp;qid=1631187659&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 5480  </t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5480&amp;qid=1631187686&amp;s=electronics&amp;sr=1-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 5495  </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>teclado retroiluminado original para portátil dell uk: latitude 5490 latitude 5491 latitude 5495 latitude 7480 latitude 7490: 9170j.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Teclado-retroiluminado-Original-para-port%C3%A1til/dp/B07JZGQQWM/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5495&amp;qid=1631187714&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 5520  </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>dell nb latitude 5520 i7 15,6 fhd w10p</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-5520-FHD-W10P/dp/B08WWP68CH/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5520&amp;qid=1631187728&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 5520  </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>dell nb latitude 5520 i5 15,6 fhd w10p</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-5520-FHD-W10P/dp/B08XNHYJZ4/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5520&amp;qid=1631187728&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 5520  </t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>nb dell latitude 5520 i5 15,6 fhd w10p</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-5520-FHD-W10P/dp/B08XNG33M3/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5520&amp;qid=1631187728&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 5520  </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>dell nb latitude 5520 i5 15,6 fhd w10p</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-5520-FHD-W10P/dp/B08XNJ4JCF/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5520&amp;qid=1631187728&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 5580  </t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_16?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+5580&amp;qid=1631187742&amp;s=electronics&amp;sr=1-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 7270  </t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ellenbogenorthese-lq nuevo teclado retroiluminado en negro de ee. uu.compatible con dell latitude e7270 / 7270 sin puntero</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Ellenbogenorthese-LQ-Teclado-retroiluminado-UU-Compatible-Latitude/dp/B0994F26DG/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7270&amp;qid=1631187797&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 7270  </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>dell latitude e7270 intel core i5-6300u x2 2.4ghz 8gb 256gb ssd 12.5' win10, negro (renovado)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-i5-6300U-2-4GHz-renovado/dp/B07KWFVRQ6/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7270&amp;qid=1631187797&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 7270  </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>kapsolo - filtro de privacidad de 2 vías para dell latitude 12 e7250 / 7270 touc</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/KAPSOLO-Filtro-privacidad-Latitude-E7250/dp/B07X2HTCZD/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7270&amp;qid=1631187797&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 7280  </t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7280&amp;qid=1631187811&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 7300  </t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>dell latitude 7300 fullhd 13.3” laptop - intel core i5 8365u, ddr4 16gb, ssd nvme de 1tb, wireless 11ac y bluetooth 5.0, nfc, windows 10 pro - distribución del teclado en el reino unido</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-QL41112-05252-W-Network-Adapter/dp/B07WF8F7PC/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7300&amp;qid=1631187901&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 7390  </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>dell latitude 7390 notebook i5-8250u ssd full hd windows 10 pro</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Notebook-i5-8250U-Windows/dp/B079D9NSX5/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7390&amp;qid=1631187929&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 7470  </t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>dell - portátil latitude e7470 de 14 pulgadas, procesador core i5-6300u de 2,4 ghz, 8 gb de ram, 256 gb de ssd, windows 10 pro de 64 bits (renovado)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Pulgadas-i5-6300U-enchapado/dp/B07GCRHS5V/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7470&amp;qid=1631187943&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 7470  </t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>dell laptop latitude e7470 de 14 pulgadas, color negro, intel core i5 2.4ghz, 16gb ram, 256gb ssd, intel hd graphics 520, windows 10 pro (renovado)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-E7470-Port%C3%A1til-pulgadas/dp/B07V9NB2ZS/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7470&amp;qid=1631187943&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 7470  </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>dell latitude e7470 2.6ghz i7-6600u 14" 1920 x 1080pixeles negro - ordenador portátil (ultrabook, negro, concha, enterprise, i7-6600u, intel core i7-6xxx)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Latitude-E7470-2-6GHz-i7-6600U-1080Pixeles/dp/B01BIQTD4S/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7470&amp;qid=1631187943&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 7480  </t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>dell latitude 7480 intel i5-7200u, 16 gb ram, 250 gb nvme, pantalla táctil fhd ips de 14"</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-7480-Business-Laptop/dp/B01N155FQI/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7480&amp;qid=1631187957&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 7480  </t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>dell latitude 3160 3180 3189 3330 3340 3380 3450 3460 3470 3480 3540 3560 3570 3580 5280 5480 5580 7280 7480, rugged 5404 5414 7204 7214 7404 7414 65w slim power ac adapter charger 450-abfs fpc2y</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Adapter-Charger-450-ABFS/dp/B07FF8BK7D/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7480&amp;qid=1631187957&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude 7490  </t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>portatil dell latitude 7490 i5 8350u - win 10 pro - 8 gb- 256ssd - 14/1- negro</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Latitude-1-7GHz-i5-8350U-1080Pixeles-Port%C3%A1til/dp/B079PN525C/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+7490&amp;qid=1631187972&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5250  </t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>battery 38wh - original vvxtw for dell latitude 11 (3150), 11 (3160), 12 (e5250), 12 (e5270), 14 (e5450), 14 (e5470), 15 (e5550), e5550</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Battery-38Wh-Original-VVXTW-Latitude/dp/B0786JC7Q5/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5250&amp;qid=1631188026&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5270  </t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>battery 38wh - original vvxtw for dell latitude 11 (3150), 11 (3160), 12 (e5250), 12 (e5270), 14 (e5450), 14 (e5470), 15 (e5550), e5550</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Battery-38Wh-Original-VVXTW-Latitude/dp/B0786JC7Q5/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5270&amp;qid=1631188040&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5270  </t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>dell batería original latitude 12 (e5250), 12 (e5270), 14 (e5450), 14 (e5470), 15 (e5550), 15 e5570</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Bater%C3%ADa-original-Latitude-E5250/dp/B07CQKGX16/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5270&amp;qid=1631188040&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5280  </t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>|_consejo_| batería compatible con dell latitude e5280 e5480 series tablet laptop 3dddg 03vc9y 11.4v 42wh</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/_Consejo_-Bater%C3%ADa-compatible-Latitude-Tablet/dp/B083FLWWTT/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5280&amp;qid=1631188054&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5280  </t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>p prettyia conector hdd para computadora portátil accesorio para dell latitude e5280</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Prettyia-Conector-Computadora-Port%C3%A1til-Accesorio/dp/B07NTZNHFG/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5280&amp;qid=1631188054&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5410  </t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>dell 56whr, 6-cell - batería/pila recargable (6-cell, notebook/tablet, ión de litio, negro, latitude e5400, e5410, e5410 n-series, e5500, e5510)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/DELL-56WHr-6-Cell-recargable-Notebook/dp/B0038M5QVA/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5410&amp;qid=1631188069&amp;s=electronics&amp;sr=1-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5440  </t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>dell latitude e5440 - ordenador portátil empresarial de 14 pulgadas, intel core i5-4300u hasta 2,9 ghz, 8 gb ram, 256 gb ssd, hdmi, dvdrw, 802.11ac wifi más bt, windows 10 professional (renovado)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-E5440-Ordenador-Professional/dp/B07CZB8SG1/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5440&amp;qid=1631188110&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5450  </t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>dell latitude e5450 portátil de 14 pulgadas - intel core i5-5300u 2.3 ghz, 8 gb ram, 256 gb ssd, wlan, cámara web, gráficos integrados, windows 10 pro (reacondicionado)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-E5450-integrados-reacondicionado/dp/B08463MRB5/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5450&amp;qid=1631188124&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5450  </t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>battery 38wh - original vvxtw for dell latitude 11 (3150), 11 (3160), 12 (e5250), 12 (e5270), 14 (e5450), 14 (e5470), 15 (e5550), e5550</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Battery-38Wh-Original-VVXTW-Latitude/dp/B0786JC7Q5/ref=sr_1_21?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5450&amp;qid=1631188124&amp;s=electronics&amp;sr=1-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5470  </t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>dell latitude e5470 – intel core i5 – 6200u | 8 gb de ram | 250 gb ssd | pantalla de 14,1 pulgadas | windows 10 multi-language | usb 3.2 | hdmi | wifi | teclado alemán (qwertz) reacondicionado</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-E5470-Multi-Language-reacondicionado/dp/B0949MBL9S/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5470&amp;qid=1631188139&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5470  </t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>dell latitude e5470 14" pantalla táctil, intel core i5-6300u 2,4 ghz (3,0 ghz turbo), 8 gb de ram, 128 gb ssd, wlan, webcam, gráfica integrada, lte, windows 10 professional (reacondicionado) - qwerty</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-E5470-Professional-reacondicionado/dp/B01IFYZDWC/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5470&amp;qid=1631188139&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5480  </t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>lexiang ordenador portátil, piezas de reparación de portátiles, línea de cable de batería de repuesto para dell latitude e5450 e5470 e5480 e5570 e5580</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/LEXIANG-Ordenador-port%C3%A1til-reparaci%C3%B3n-port%C3%A1tiles/dp/B08YR8FZH9/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5480&amp;qid=1631188154&amp;s=electronics&amp;sr=1-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5480  </t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>qirun cable de batería de repuesto para dell latitude e5450 e5470 e5480 e5570 e5580</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Qirun-Cable-bater%C3%ADa-Repuesto-Latitude/dp/B09CD83VV1/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5480&amp;qid=1631188154&amp;s=electronics&amp;sr=1-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5550  </t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>battery 38wh - original vvxtw for dell latitude 11 (3150), 11 (3160), 12 (e5250), 12 (e5270), 14 (e5450), 14 (e5470), 15 (e5550), e5550</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Battery-38Wh-Original-VVXTW-Latitude/dp/B0786JC7Q5/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5550&amp;qid=1631188168&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5570  </t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>lexiang ordenador portátil, piezas de reparación de portátiles, línea de cable de batería de repuesto para dell latitude e5450 e5470 e5480 e5570 e5580</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/LEXIANG-Ordenador-port%C3%A1til-reparaci%C3%B3n-port%C3%A1tiles/dp/B08YR8FZH9/ref=sr_1_21?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5570&amp;qid=1631188182&amp;s=electronics&amp;sr=1-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5580  </t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>lexiang ordenador portátil, piezas de reparación de portátiles, línea de cable de batería de repuesto para dell latitude e5450 e5470 e5480 e5570 e5580</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/LEXIANG-Ordenador-port%C3%A1til-reparaci%C3%B3n-port%C3%A1tiles/dp/B08YR8FZH9/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5580&amp;qid=1631188195&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5580  </t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>qirun cable de batería de repuesto para dell latitude e5450 e5470 e5480 e5570 e5580</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Qirun-Cable-bater%C3%ADa-Repuesto-Latitude/dp/B09CD83VV1/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5580&amp;qid=1631188195&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5580  </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>qirun cable de batería de repuesto para dell latitude e5450 e5470 e5480 e5570 e5580</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Qirun-Cable-bater%C3%ADa-Repuesto-Latitude/dp/B09CCF3544/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5580&amp;qid=1631188195&amp;s=electronics&amp;sr=1-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5580  </t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>qirun cable de batería de repuesto para dell latitude e5450 e5470 e5480 e5570 e5580</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Qirun-Cable-bater%C3%ADa-Repuesto-Latitude/dp/B09CD6JYZX/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5580&amp;qid=1631188195&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e5580  </t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>qirun cable de batería de repuesto para dell latitude e5450 e5470 e5480 e5570 e5580</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Qirun-Cable-bater%C3%ADa-Repuesto-Latitude/dp/B09CCXVFNK/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e5580&amp;qid=1631188195&amp;s=electronics&amp;sr=1-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e6330  </t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>dell replicador de puertos avanzado 452-11421 e-port ii para latitude e5440/e5450/e5520/e5550/e6330/e6440/e6540/e7240/e7250/e7440/e7450</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/DELL-452-11421-Advanced-Port-Adapter/dp/B0183T35QK/ref=sr_1_31?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e6330&amp;qid=1631188239&amp;s=electronics&amp;sr=1-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e6540  </t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ordenador portátil dell latitude e6540 i5 2,5 ghz 15,6 pulgadas 8 gb windows 7</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1tiles-Latitude-E6540-i5-15-6-Pulgadas-Windows/dp/B07DJB9RG4/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e6540&amp;qid=1631188363&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e7280  </t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>portátil dell latitude e7280 de ocasión - ci5-6300u/8gb/12.5" led/ssd256gb/w10prof</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Port%C3%A1til-Dell-Latitude-E7280-ocasi%C3%B3n/dp/B01N7W9ZEM/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e7280&amp;qid=1631188391&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e7280  </t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>hottopstar - batería de ordenador portátil compatible con dell latitude e7280, e7480, e7290, 7380, 7390 7480 7490, dell latitude 12 7000 notebook series dm3wc 2x39g 451-bbye (7,6 v, 60 wh)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/HotTopStar-ordenador-port%C3%A1til-compatible-Latitude/dp/B08P168D6V/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e7280&amp;qid=1631188391&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e7280  </t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>fske f3ygt batería para portátil para portátil dell latitude e7480 e7280 0f3ygt dm3wc dm6wc 0dm3wc 2x39g kg7vf v4940 451-bbye 12 7000 7280 7290 latitude 7380 7390 7480 7490</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/FSKE-Bater%C3%ADa-port%C3%A1til-Latitude-451-BBYE/dp/B08PQDPBZ9/ref=sr_1_27?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e7280&amp;qid=1631188391&amp;s=electronics&amp;sr=1-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e7440  </t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>dell latitude 14 e7440 ultrabook (intel core i5, 8 gb ram, 128 gb ssd + 500 gb hdd windows 10 pro (renovado)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-E7440-Professional-7440-i5-8-128/dp/B07N6BPX5S/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e7440&amp;qid=1631188418&amp;s=electronics&amp;sr=1-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e7450  </t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>dell replicador de puertos avanzado 452-11421 e-port ii para latitude e5440/e5450/e5520/e5550/e6330/e6440/e6540/e7240/e7250/e7440/e7450</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/DELL-452-11421-Advanced-Port-Adapter/dp/B0183T35QK/ref=sr_1_32?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e7450&amp;qid=1631188432&amp;s=electronics&amp;sr=1-32</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e7470  </t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>dell laptop latitude e7470 de 14 pulgadas, color negro, intel core i5 2.4ghz, 16gb ram, 256gb ssd, intel hd graphics 520, windows 10 pro (renovado)</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-E7470-Port%C3%A1til-pulgadas/dp/B07V9NB2ZS/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e7470&amp;qid=1631188447&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell latitude e7470  </t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>dell - portátil latitude e7470 de 14 pulgadas, procesador core i5-6300u de 2,4 ghz, 8 gb de ram, 256 gb de ssd, windows 10 pro de 64 bits (renovado)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Latitude-Pulgadas-i5-6300U-enchapado/dp/B07GCRHS5V/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+latitude+e7470&amp;qid=1631188447&amp;s=electronics&amp;sr=1-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision 7510  </t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>dell precision 15 7510, precision 17 7710 91 whr batería primaria de 9 celdas rdyct twcpg mfkvp 451-bbsf</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Precision-Primaria-RDYCTTWCPG-451-BBSF/dp/B076623STF/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+7510&amp;qid=1631188487&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision 7510  </t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>180w 19.5v 9.23a adaptador alimentador cargador portátil para dell alienware 15 r1 r2 dell precision 7510 precision 17 7710 m4600 m4700 m4800 74x5j jvf3v da180pm111 optiplex 3011 aio inspiron 15 7577</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Adaptador-Alimentador-Alienware-Precision-DA180PM111/dp/B08S7QY5K8/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+7510&amp;qid=1631188487&amp;s=electronics&amp;sr=1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision 7510  </t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>180w 19.5v 9.23a adaptador alimentador cargador portátil para dell precision 7520 7530 7510 m4600 m4700 m4800 m6600 inspiron one 2320 2350 7577 da180pm111 fa180pm111 p74f p74f001 p53f</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Adaptador-Alimentador-Precision-DA180PM111-FA180PM111/dp/B08S7RDD2S/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+7510&amp;qid=1631188487&amp;s=electronics&amp;sr=1-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision 7510  </t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>dell - batería original para dell precision 7510 7710 (72 whr t05w1 p/n gr5d3)</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Original-Precision-7510-7710-battery-gr5d3-New/dp/B01N79H0KI/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+7510&amp;qid=1631188487&amp;s=electronics&amp;sr=1-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision 7520  </t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ettech - cargador adaptador para dell precision 7730, precision 7720, precision 7520, alienware 17 r5, alienware 15 r4, la240pm180, da240pm180, 7xcr6, ryj9, 450-agcx (240 w, 19,5 v, 12,3 a)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/ETTECH-Adaptador-Precision-LA240PM180-DA240PM180/dp/B07Q3DRL1S/ref=sr_1_20?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+7520&amp;qid=1631188501&amp;s=electronics&amp;sr=1-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision 7520  </t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>180w 19.5v 9.23a adaptador alimentador cargador portátil para dell precision 7520 7530 7510 m4600 m4700 m4800 m6600 inspiron one 2320 2350 7577 da180pm111 fa180pm111 p74f p74f001 p53f</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Adaptador-Alimentador-Precision-DA180PM111-FA180PM111/dp/B08S7RDD2S/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+7520&amp;qid=1631188501&amp;s=electronics&amp;sr=1-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m4600  </t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>replicador de puertos e-port ii avanzado dell 452-11512 para estación de trabajo móvil precision m4600/m4700/m4800/m6600/m6700/m6800 negro negro</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/DELL-452-11520-Negro-Acoplamiento-Precision/dp/B0183T3470/ref=sr_1_30?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m4600&amp;qid=1631188516&amp;s=electronics&amp;sr=1-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m4600  </t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>180w 19.5v 9.23a adaptador alimentador cargador portátil para dell alienware 15 r1 r2 dell precision 7510 precision 17 7710 m4600 m4700 m4800 74x5j jvf3v da180pm111 optiplex 3011 aio inspiron 15 7577</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Adaptador-Alimentador-Alienware-Precision-DA180PM111/dp/B08S7QY5K8/ref=sr_1_32?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m4600&amp;qid=1631188516&amp;s=electronics&amp;sr=1-32</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m4800  </t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>xcj placa base gaming atx cuaderno placa principal fit for dell precision m4800 placera portátil placa base vaq10 la-9772p edp platabon placa madre</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/XCJ-Cuaderno-Principal-Precision-Port%C3%A1til/dp/B09BZGV5FG/ref=sr_1_20?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m4800&amp;qid=1631188530&amp;s=electronics&amp;sr=1-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m4800  </t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>replicador de puertos e-port ii avanzado dell 452-11512 para estación de trabajo móvil precision m4600/m4700/m4800/m6600/m6700/m6800 negro negro</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/DELL-452-11520-Negro-Acoplamiento-Precision/dp/B0183T3470/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m4800&amp;qid=1631188530&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m4800  </t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>180w 19.5v 9.23a adaptador alimentador cargador portátil para dell alienware 15 r1 r2 dell precision 7510 precision 17 7710 m4600 m4700 m4800 74x5j jvf3v da180pm111 optiplex 3011 aio inspiron 15 7577</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Adaptador-Alimentador-Alienware-Precision-DA180PM111/dp/B08S7QY5K8/ref=sr_1_23?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m4800&amp;qid=1631188530&amp;s=electronics&amp;sr=1-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m6700  </t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>nueva tarjeta gráfica de 8 gb de reemplazo para la estación de trabajo portátil dell precision m6700 m6800 7710 7720, nvidia quadro m5000m gddr5 8 gb, mxm vga placa gpu</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/tarjeta-reemplazo-estaci%C3%B3n-port%C3%A1til-Precision/dp/B0867FQVGJ/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m6700&amp;qid=1631188544&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m6700  </t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>disco duro ssd de 960 gb compatible con dell precision m4300 m6300 m6700 (dual-core) – componente alternativo</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Disco-compatible-Precision-M4300-Dual-Core/dp/B09CDZRKJN/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m6700&amp;qid=1631188544&amp;s=electronics&amp;sr=1-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m6700  </t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>disco duro ssd de 960 gb compatible con dell precision m4300 m6400 m6700 (quad-core) – componente alternativo</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Disco-compatible-Precision-M4300-Quad-Core/dp/B09CDZC58Y/ref=sr_1_18?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m6700&amp;qid=1631188544&amp;s=electronics&amp;sr=1-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m6700  </t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>dell 452-11510 - base (acoplamiento, usb tipo a, dell precision m4700, m6700, 240 w, negro, 288 mm)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/DELL-452-11510-Negro-Acoplamiento-Type/dp/B0168BRRR8/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m6700&amp;qid=1631188544&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell precision m6700  </t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>nueva tarjeta gráfica de 4 gb de reemplazo de tarjeta de vídeo gpu para dell precision m6700 m6800 7710 7720 m7710 estación de trabajo portátil, nvidia quadro m4000m gddr5 mxm vga placa de reparación</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/reemplazo-Precision-Estaci%C3%B3n-port%C3%A1til-reparaci%C3%B3n/dp/B086J6WNF3/ref=sr_1_29?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+precision+m6700&amp;qid=1631188544&amp;s=electronics&amp;sr=1-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro 3500  </t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>dell vostro 3500 - ordenador portátil de 15.6" full hd (core i5 1135g7 2.4 ghz, 8 gb ram, 256 gb ssd nvme, iris xe graphics, win 10 pro 64 bits, bluetooth 5, bts) negro</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Vostro-3500-Ordenador-Bluetooth/dp/B08X37NGGJ/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+3500&amp;qid=1631188599&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro 3500  </t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>dell vostro 3500 - ordenador portátil de 15.6 " fullhd (intel core i5-1135g7, 8 gb ram, 512 gb m2, gráfica intel iris xe, windows 10 pro) negro - teclado qwerty español</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Vostro-3500-Ordenador-i5-1135G7/dp/B08X32T951/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+3500&amp;qid=1631188599&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro 3500  </t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>dell vostro 3500 - ordenador portátil de 15.6" full hd (core i3 1115g4 3 ghz, 8 gb ram, 256 gb ssd nvme, uhd graphics, win 10 pro 64 bits, bluetooth 5, bts) negro</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Vostro-3500-Ordenador-Bluetooth/dp/B08Z39STMQ/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+3500&amp;qid=1631188599&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro 3500  </t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>dell vostro 3500 i7-1165g7 8 512 15 w10p</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-Vostro-3500-I7-1165g7-W10p/dp/B08Z6TG1RN/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+3500&amp;qid=1631188599&amp;s=electronics&amp;sr=1-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro 3500  </t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>dell vostro 3500 15.6" 1920x1080 pixel intel core i5-1135g7 8gb ddr4-sdram 256gb ssd wi-fi 5 windows 10 professional black 6xpy4</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/1920X1080-I5-1135G7-DDR4-SDRAM-PROFESSIONAL-6XPY4/dp/B08Z6381L9/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+3500&amp;qid=1631188599&amp;s=electronics&amp;sr=1-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro 3550  </t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>nueva batería original original para ordenador dell inspiron 13r 14r 15r 17r n3010 n4010 n5010 n4110 n5110 n7010 n7110 m5010 m5030 m501 m501r n5030 dell vostro 3450 3550 3750j1knd 04yrjh fmhc10 tkv2 yxv2v j4xdh 9tcxn 9t48v 965y7 4t7jn 383cw w7h3n 07xfjj 4yrjy 8nh55 4yrjh j4xdh 7xfjj 9tcxn 9t48v 965y7 4t7jn 11.1v / 48wh 6 cell</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/BATER%C3%8DA-ORIGINAL-Ordenador-INSPIRON-3750J1KND/dp/B009U57TOG/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+3550&amp;qid=1631188626&amp;s=electronics&amp;sr=1-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro 3558  </t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>green cell ultra batería para dell latitude p63g001 vostro 14 3458 3459 15 3558 3559 3568 3578 p45f p45f001 p52f p52f001 p52f003 p65g p65g001 portátil (3400mah 14.8v negro)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Green-Cell-Bater%C3%ADa-Latitude-Port%C3%A1til/dp/B08L7QRRY9/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+3558&amp;qid=1631188641&amp;s=electronics&amp;sr=1-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro 3559  </t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>green cell ultra batería para dell latitude p63g001 vostro 14 3458 3459 15 3558 3559 3568 3578 p45f p45f001 p52f p52f001 p52f003 p65g p65g001 portátil (3400mah 14.8v negro)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Green-Cell-Bater%C3%ADa-Latitude-Port%C3%A1til/dp/B08L7QRRY9/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+3559&amp;qid=1631188655&amp;s=electronics&amp;sr=1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro 3568  </t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>green cell ultra batería para dell latitude p63g001 vostro 14 3458 3459 15 3558 3559 3568 3578 p45f p45f001 p52f p52f001 p52f003 p65g p65g001 portátil (3400mah 14.8v negro)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Green-Cell-Bater%C3%ADa-Latitude-Port%C3%A1til/dp/B08L7QRRY9/ref=sr_1_13?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+3568&amp;qid=1631188683&amp;s=electronics&amp;sr=1-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro v131  </t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>dell - producto oficial nuevo 6 celulas 65whr bateria para vostro v131 latitude e3330 inspiron 14z n411z 14r n4010 n311z tipo 268x5 p/n m0p7p sku 451-11845 por returns-excess</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/DELL-6-Cells-litio-bater%C3%ADa-recargable/dp/B00KT3P6C0/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+v131&amp;qid=1631188738&amp;s=electronics&amp;sr=1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell vostro v131  </t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>cargador / adaptador original para dell inspiron 1318, 13r, 13z, 1440, 14r, 14r-n4110, 15 n5040, 15, 1501, 1520, 1521, 1525, 1526, 15-3521, 1545, 1564, 15r, 15r-5520, 15r-7520, 15z, 1747, 1750, 1764, 17r, 17r-5720, 3521, 6400, 640m, 7720, e1405, e1505, m101z, m301z, m5010, m501r, n3010, n4010, n5010, n7010, n7110 / latitude 13, 2120, e5400, e5410, e5520, e6220, e6320, e6500, e6530, x1, xfr d630 / precision m65 / studio 14, 1435, 1436, 1450, 1457, 1537, 1558 / vostro 500, v131 / xps m1330</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Cargador-adaptador-Dell-14R-N4110-Precision/dp/B00AQTWJDQ/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+vostro+v131&amp;qid=1631188738&amp;s=electronics&amp;sr=1-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell xps 13  </t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>dell xps 13 9310 negro, platino, plata - 13.4" - intel core i7-11xxx - 16gb - 1000gb ssd - w10 pro</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Dell-9310-Negro-Platino-Plata/dp/B093B68FZV/ref=sr_1_1?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+xps+13&amp;qid=1631188767&amp;s=electronics&amp;sr=1-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dell xps 13  </t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>nb dell xps 13 9300 i7 w10p</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/NB-Dell-XPS-9300-W10P/dp/B08W75R1DX/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=dell+xps+13&amp;qid=1631188767&amp;s=electronics&amp;sr=1-3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>